--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Pyton\Util.ExcelToXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C280F79-3715-4995-A107-EC8C5F7295D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482A189-76D4-41C1-BFA2-2FF9F69EF3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>ST</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>N809000005243</t>
+  </si>
+  <si>
+    <t>C809NOSP</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,15 +663,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
